--- a/经九路（k0+944~k1+635.162）下面层/平整度检测记录.xlsx
+++ b/经九路（k0+944~k1+635.162）下面层/平整度检测记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <r>
       <t>温州市瓯江口新区一期市政工程</t>
@@ -461,27 +461,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>K2+577.74</t>
+    <t>经九路下面层（k0+944~k1+635.162）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>K2+770</t>
+    <t>K0+944</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>K2+970</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3+170</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>K3+355</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>经十路下面层（K2+577.74~K3+355）</t>
+    <t>K1+635.162</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +477,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="\K#\+###"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +580,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -750,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -785,6 +781,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -794,6 +802,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -809,71 +856,23 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1294,7 +1293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -1322,50 +1321,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
     </row>
     <row r="2" spans="1:19" ht="19.5">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
     </row>
     <row r="3" spans="1:19" ht="9" customHeight="1">
       <c r="A3" s="1"/>
@@ -1389,27 +1388,27 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19" ht="20.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" ht="11.25" customHeight="1">
       <c r="A5" s="2"/>
@@ -1433,50 +1432,50 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="15.75">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="S6" s="39"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
     </row>
     <row r="7" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" spans="1:19" ht="4.5" customHeight="1">
       <c r="A8" s="3"/>
@@ -1500,141 +1499,141 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" ht="35.25" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="20" t="s">
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="24">
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38">
         <v>43114</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="25">
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="39">
         <v>43114</v>
       </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="26"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="40"/>
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="23" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
     </row>
     <row r="12" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
     </row>
     <row r="13" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="35" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="19" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1645,1012 +1644,1144 @@
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="18">
         <v>2</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="5">
         <v>3</v>
       </c>
       <c r="H14" s="5">
         <v>4</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="18">
         <v>5</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="5">
         <v>6</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="18">
         <v>7</v>
       </c>
-      <c r="M14" s="14"/>
+      <c r="M14" s="18"/>
       <c r="N14" s="5">
         <v>8</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="18">
         <v>9</v>
       </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14">
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18">
         <v>10</v>
       </c>
-      <c r="R14" s="14"/>
-      <c r="S14" s="23"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="15">
+        <v>1140</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="5">
         <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3</v>
-      </c>
-      <c r="E15" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1.4</v>
+      </c>
+      <c r="E15" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.4</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="7">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>4</v>
+      </c>
+      <c r="H15" s="7">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.4</v>
+      </c>
+      <c r="I15" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="7">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" ref="L15:L28" ca="1" si="0">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.2</v>
-      </c>
-      <c r="H15" s="7">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1</v>
-      </c>
-      <c r="I15" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="7">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.4</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" ref="L15:L28" ca="1" si="0">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4.8</v>
-      </c>
-      <c r="M15" s="14"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="7">
         <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.6</v>
-      </c>
-      <c r="O15" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2</v>
-      </c>
-      <c r="R15" s="14"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O15" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>5</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.4</v>
+      </c>
+      <c r="R15" s="18"/>
       <c r="S15" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="7">
         <f t="shared" ref="D16:E30" ca="1" si="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.4</v>
-      </c>
-      <c r="E16" s="14">
+        <v>2</v>
+      </c>
+      <c r="E16" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="F16" s="14"/>
+        <v>1.6</v>
+      </c>
+      <c r="F16" s="18"/>
       <c r="G16" s="7">
         <f t="shared" ref="G16:I30" ca="1" si="2">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.2000000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6</v>
-      </c>
-      <c r="I16" s="14">
-        <f t="shared" ca="1" si="2"/>
         <v>2</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="I16" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="18"/>
       <c r="K16" s="7">
         <f t="shared" ref="K16:K30" ca="1" si="3">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="L16" s="14">
+        <v>3</v>
+      </c>
+      <c r="L16" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="M16" s="14"/>
+        <v>4.2</v>
+      </c>
+      <c r="M16" s="18"/>
       <c r="N16" s="7">
         <v>6</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="18">
         <f t="shared" ref="N16:O30" ca="1" si="4">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14">
+        <v>3</v>
+      </c>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18">
         <f t="shared" ref="Q16:Q22" ca="1" si="5">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.8</v>
-      </c>
-      <c r="R16" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="R16" s="18"/>
       <c r="S16" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="15">
+        <v>1140</v>
+      </c>
+      <c r="B17" s="15">
+        <f>A17+200</f>
+        <v>1340</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" ca="1" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E17" s="18">
+        <f t="shared" ca="1" si="1"/>
         <v>4.8</v>
       </c>
-      <c r="E17" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="I17" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J17" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J17" s="18"/>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="L17" s="14">
+        <v>2</v>
+      </c>
+      <c r="L17" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="M17" s="14"/>
+        <v>2.6</v>
+      </c>
+      <c r="M17" s="18"/>
       <c r="N17" s="9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="O17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2</v>
-      </c>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="R17" s="14"/>
+        <v>1.4</v>
+      </c>
+      <c r="R17" s="18"/>
       <c r="S17" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="E18" s="14">
+        <v>3</v>
+      </c>
+      <c r="E18" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="F18" s="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4000000000000004</v>
+        <v>2.8</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-      <c r="I18" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L18" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="L18" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
-      </c>
-      <c r="M18" s="14"/>
+        <v>2.8</v>
+      </c>
+      <c r="M18" s="18"/>
       <c r="N18" s="7">
         <v>6</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="18">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="R18" s="14"/>
+      <c r="R18" s="18"/>
       <c r="S18" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="13" t="s">
+      <c r="A19" s="15">
+        <f>A17+200</f>
+        <v>1340</v>
+      </c>
+      <c r="B19" s="15">
+        <f t="shared" ref="B19" si="6">A19+200</f>
+        <v>1540</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E19" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="E19" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="7">
         <v>7.2</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="J19" s="14"/>
+        <v>2</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="18"/>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M19" s="18"/>
+      <c r="N19" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8</v>
+      </c>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>2.6</v>
+      </c>
+      <c r="R19" s="18"/>
+      <c r="S19" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8</v>
+      </c>
+      <c r="I20" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6</v>
+      </c>
+      <c r="L20" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="M20" s="18"/>
+      <c r="N20" s="7">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.6</v>
+      </c>
+      <c r="R20" s="18"/>
+      <c r="S20" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A21" s="15">
+        <f t="shared" ref="A21" si="7">A19+200</f>
+        <v>1540</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="I21" s="18">
+        <v>6</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
         <f t="shared" ca="1" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="7">
+      <c r="M21" s="18"/>
+      <c r="N21" s="7">
         <f t="shared" ca="1" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="18"/>
+      <c r="S21" s="11">
         <v>0</v>
       </c>
-      <c r="O19" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.4</v>
-      </c>
-      <c r="R19" s="14"/>
-      <c r="S19" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="7">
+    </row>
+    <row r="22" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="7">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E22" s="18">
         <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="I22" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="8">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18">
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" ca="1" si="2"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1140</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="E23" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>2</v>
       </c>
-      <c r="I20" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="7">
+      <c r="F23" s="18"/>
+      <c r="G23" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>5</v>
+      </c>
+      <c r="H23" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2</v>
+      </c>
+      <c r="I23" s="18">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1.8</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.8</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.8</v>
+      </c>
+      <c r="R23" s="18"/>
+      <c r="S23" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="E24" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I24" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
-      </c>
-      <c r="L20" s="14">
+        <v>3</v>
+      </c>
+      <c r="L24" s="18">
         <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="7">
+      <c r="M24" s="18"/>
+      <c r="N24" s="10">
         <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O24" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18">
+        <f t="shared" ref="Q24" ca="1" si="8">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2.8</v>
+      </c>
+      <c r="R24" s="18"/>
+      <c r="S24" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A25" s="15">
+        <v>1140</v>
+      </c>
+      <c r="B25" s="15">
+        <f>A25+200</f>
+        <v>1340</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.8</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="H25" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2</v>
+      </c>
+      <c r="I25" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2.4</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>5</v>
+      </c>
+      <c r="L25" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
+      </c>
+      <c r="M25" s="18"/>
+      <c r="N25" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>4</v>
       </c>
-      <c r="O20" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8</v>
-      </c>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="R20" s="14"/>
-      <c r="S20" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="14">
-        <v>6</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="L21" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4</v>
-      </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="7">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.8</v>
-      </c>
-      <c r="O21" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3.4</v>
-      </c>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="R21" s="14"/>
-      <c r="S21" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2.8</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="7">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="L22" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="8">
+      <c r="O25" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>3.6</v>
       </c>
-      <c r="O22" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.4</v>
-      </c>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14">
-        <f t="shared" ca="1" si="5"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>0.2</v>
+      </c>
+      <c r="R25" s="18"/>
+      <c r="S25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="10">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="R22" s="14"/>
-      <c r="S22" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A23" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.6</v>
-      </c>
-      <c r="E23" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.8</v>
-      </c>
-      <c r="H23" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>0.4</v>
-      </c>
-      <c r="I23" s="14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="L23" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="E26" s="18">
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.4</v>
-      </c>
-      <c r="O23" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.4</v>
-      </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="11">
+      <c r="F26" s="18"/>
+      <c r="G26" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="I26" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="H24" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.2</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.4</v>
-      </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="10">
+      <c r="J26" s="18"/>
+      <c r="K26" s="10">
         <f t="shared" ca="1" si="3"/>
-        <v>3.8</v>
-      </c>
-      <c r="L24" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
-      </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="L26" s="18">
+        <v>5.6</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="10">
         <f t="shared" ca="1" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O26" s="18">
         <f t="shared" ca="1" si="4"/>
+        <v>2.4</v>
+      </c>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18">
+        <f t="shared" ref="Q26" ca="1" si="9">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R26" s="18"/>
+      <c r="S26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A27" s="15">
+        <f>A25+200</f>
+        <v>1340</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" ref="B27" si="10">A27+200</f>
+        <v>1540</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>4</v>
+      </c>
+      <c r="E27" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3.4</v>
+      </c>
+      <c r="H27" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="I27" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>4.2</v>
       </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14">
-        <f t="shared" ref="Q24" ca="1" si="6">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.8</v>
-      </c>
-      <c r="R24" s="14"/>
-      <c r="S24" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A25" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E25" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.4</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3</v>
-      </c>
-      <c r="H25" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+      <c r="J27" s="18"/>
+      <c r="K27" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2</v>
+      </c>
+      <c r="L27" s="18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="10">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>4</v>
+      </c>
+      <c r="O27" s="18">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1.6</v>
+      </c>
+      <c r="R27" s="18"/>
+      <c r="S27" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="24.95" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="10">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="E28" s="18">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I28" s="18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="10">
+        <f t="shared" ca="1" si="3"/>
         <v>1.4</v>
       </c>
-      <c r="I25" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1.8</v>
-      </c>
-      <c r="L25" s="14">
+      <c r="L28" s="18">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6</v>
-      </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1.6</v>
-      </c>
-      <c r="O25" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>4.2</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2</v>
-      </c>
-      <c r="R25" s="14"/>
-      <c r="S25" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H26" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.2</v>
-      </c>
-      <c r="J26" s="14"/>
-      <c r="K26" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L26" s="14">
-        <v>5.6</v>
-      </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="M28" s="18"/>
+      <c r="N28" s="10">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14">
-        <f t="shared" ref="Q26" ca="1" si="7">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="R26" s="14"/>
-      <c r="S26" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.4</v>
-      </c>
-      <c r="E27" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.6</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2</v>
-      </c>
-      <c r="H27" s="10">
-        <v>5.2</v>
-      </c>
-      <c r="I27" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2</v>
-      </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1.2</v>
-      </c>
-      <c r="L27" s="14">
-        <f t="shared" ca="1" si="0"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18">
+        <f t="shared" ref="Q28" ca="1" si="11">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>4.2</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="10">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4</v>
-      </c>
-      <c r="O27" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>1.4</v>
-      </c>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1.6</v>
-      </c>
-      <c r="R27" s="14"/>
-      <c r="S27" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E28" s="14">
-        <f t="shared" ca="1" si="1"/>
-        <v>3.4</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6</v>
-      </c>
-      <c r="I28" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.8</v>
-      </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="10">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L28" s="14">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.8</v>
-      </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="10">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="O28" s="14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14">
-        <f t="shared" ref="Q28" ca="1" si="8">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.2</v>
-      </c>
-      <c r="R28" s="14"/>
+      <c r="R28" s="18"/>
       <c r="S28" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="15">
+        <f t="shared" ref="A29" si="12">A27+200</f>
+        <v>1540</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="10">
         <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1.8</v>
-      </c>
-      <c r="E29" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.6</v>
-      </c>
-      <c r="F29" s="14"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="10">
         <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>2.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="H29" s="10">
         <v>5.6</v>
       </c>
-      <c r="I29" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J29" s="14"/>
+      <c r="I29" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>3</v>
+      </c>
+      <c r="J29" s="18"/>
       <c r="K29" s="10">
         <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4</v>
-      </c>
-      <c r="L29" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M29" s="14"/>
+        <v>3.2</v>
+      </c>
+      <c r="L29" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1</v>
+      </c>
+      <c r="M29" s="18"/>
       <c r="N29" s="10">
         <v>6.2</v>
       </c>
-      <c r="O29" s="14">
+      <c r="O29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>1.2</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>0.2</v>
-      </c>
-      <c r="R29" s="14"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>1.6</v>
+      </c>
+      <c r="R29" s="18"/>
       <c r="S29" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="24.95" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E30" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="E30" s="18">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F30" s="14"/>
+        <v>1.4</v>
+      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="10">
         <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="I30" s="18">
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.8</v>
-      </c>
-      <c r="I30" s="14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J30" s="14"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="10">
         <f t="shared" ca="1" si="3"/>
         <v>3.4</v>
       </c>
-      <c r="L30" s="14">
-        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>1.6</v>
-      </c>
-      <c r="M30" s="14"/>
+      <c r="L30" s="18">
+        <f ca="1">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
+        <v>2.8</v>
+      </c>
+      <c r="M30" s="18"/>
       <c r="N30" s="10">
         <f t="shared" ca="1" si="4"/>
-        <v>4.2</v>
-      </c>
-      <c r="O30" s="14">
+        <v>5</v>
+      </c>
+      <c r="O30" s="18">
         <f t="shared" ca="1" si="4"/>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18">
+        <f t="shared" ref="Q30" ca="1" si="13">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
         <v>2</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14">
-        <f t="shared" ref="Q30" ca="1" si="9">RANDBETWEEN(0,4)+RANDBETWEEN(0,5)*0.2</f>
-        <v>3.2</v>
-      </c>
-      <c r="R30" s="14"/>
+      <c r="R30" s="18"/>
       <c r="S30" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="22" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="22" t="s">
+      <c r="F31" s="19"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="20"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="22" t="s">
+      <c r="L31" s="25"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="29"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="21"/>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="29"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="21"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="33" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="33" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="33" t="s">
+      <c r="L33" s="28"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="29"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="148">
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A12:S12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:R13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H11"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L11"/>
+    <mergeCell ref="M9:P9"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="Q10:S11"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="S31:S33"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A2:S2"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="H31:J33"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M31:O33"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C31:D33"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="A6:S6"/>
     <mergeCell ref="A7:S7"/>
     <mergeCell ref="A27:A28"/>
@@ -2675,130 +2806,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="Q22:R22"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="A2:S2"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="H31:J33"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M31:O33"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C31:D33"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A12:S12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:R13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H11"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L11"/>
-    <mergeCell ref="M9:P9"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="Q10:S11"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
